--- a/test-case/caseList.xlsx
+++ b/test-case/caseList.xlsx
@@ -16,17 +16,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>testLeaveOrderMessage()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order顺序需要修改没有写完</t>
+    <t>testProviderRegister()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>customer</t>
+    <t>TestCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestProvider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testCustomerRegister()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order顺序需要修改,没有写完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户和商家的注册case通过，但是不进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testChangeProfilePicture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,12 +109,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,27 +413,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
+      <selection activeCell="A10" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -403,32 +440,27 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -444,13 +476,19 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -458,21 +496,25 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -480,21 +522,27 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -906,6 +954,9 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -913,7 +964,10 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="4:9">
+    <row r="49" spans="1:9">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -921,7 +975,10 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="4:9">
+    <row r="50" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -929,7 +986,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="4:9">
+    <row r="51" spans="1:9">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -937,7 +994,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="4:9">
+    <row r="52" spans="1:9">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -945,7 +1002,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="4:9">
+    <row r="53" spans="1:9">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -953,7 +1010,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="4:9">
+    <row r="54" spans="1:9">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -961,7 +1018,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="4:9">
+    <row r="55" spans="1:9">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -969,7 +1026,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="4:9">
+    <row r="56" spans="1:9">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -977,7 +1034,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="4:9">
+    <row r="57" spans="1:9">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -985,7 +1042,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="4:9">
+    <row r="58" spans="1:9">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -993,7 +1050,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="4:9">
+    <row r="59" spans="1:9">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1001,7 +1058,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="4:9">
+    <row r="60" spans="1:9">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1009,7 +1066,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="4:9">
+    <row r="61" spans="1:9">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1017,7 +1074,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="4:9">
+    <row r="62" spans="1:9">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1025,7 +1082,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="4:9">
+    <row r="63" spans="1:9">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1033,7 +1090,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="4:9">
+    <row r="64" spans="1:9">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1149,16 +1206,25 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="4:9">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="4:9">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="4:6">
       <c r="D81" s="1"/>
@@ -1255,121 +1321,138 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
+    <row r="100" spans="4:6">
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="4:6">
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="G65:I66"/>
-    <mergeCell ref="G67:I68"/>
-    <mergeCell ref="G69:I70"/>
-    <mergeCell ref="G71:I72"/>
-    <mergeCell ref="G73:I74"/>
-    <mergeCell ref="G75:I76"/>
-    <mergeCell ref="G53:I54"/>
-    <mergeCell ref="G55:I56"/>
-    <mergeCell ref="G57:I58"/>
-    <mergeCell ref="G59:I60"/>
-    <mergeCell ref="G61:I62"/>
-    <mergeCell ref="G63:I64"/>
-    <mergeCell ref="G41:I42"/>
-    <mergeCell ref="G43:I44"/>
-    <mergeCell ref="G45:I46"/>
-    <mergeCell ref="G47:I48"/>
-    <mergeCell ref="G49:I50"/>
-    <mergeCell ref="G51:I52"/>
-    <mergeCell ref="G29:I30"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="G37:I38"/>
-    <mergeCell ref="G39:I40"/>
-    <mergeCell ref="G17:I18"/>
-    <mergeCell ref="G19:I20"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="G23:I24"/>
-    <mergeCell ref="G25:I26"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="G11:I12"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="G15:I16"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="A33:C34"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="A21:C22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A25:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A29:C30"/>
-    <mergeCell ref="D87:F88"/>
-    <mergeCell ref="D89:F90"/>
-    <mergeCell ref="D91:F92"/>
-    <mergeCell ref="D93:F94"/>
-    <mergeCell ref="D95:F96"/>
-    <mergeCell ref="D97:F98"/>
-    <mergeCell ref="D75:F76"/>
-    <mergeCell ref="D77:F78"/>
-    <mergeCell ref="D79:F80"/>
-    <mergeCell ref="D81:F82"/>
-    <mergeCell ref="D83:F84"/>
-    <mergeCell ref="D85:F86"/>
-    <mergeCell ref="D63:F64"/>
-    <mergeCell ref="D65:F66"/>
-    <mergeCell ref="D67:F68"/>
-    <mergeCell ref="D69:F70"/>
-    <mergeCell ref="D71:F72"/>
-    <mergeCell ref="D73:F74"/>
-    <mergeCell ref="D51:F52"/>
-    <mergeCell ref="D53:F54"/>
-    <mergeCell ref="D55:F56"/>
-    <mergeCell ref="D57:F58"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D41:F42"/>
-    <mergeCell ref="D43:F44"/>
-    <mergeCell ref="D45:F46"/>
-    <mergeCell ref="D47:F48"/>
-    <mergeCell ref="D49:F50"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="D33:F34"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="D37:F38"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="D19:F20"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="D23:F24"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="D9:F10"/>
-    <mergeCell ref="D11:F12"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A11:C12"/>
+  <mergeCells count="115">
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="D6:F9"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
+    <mergeCell ref="D52:F53"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="D36:F37"/>
+    <mergeCell ref="D38:F39"/>
+    <mergeCell ref="D40:F41"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="D28:F29"/>
+    <mergeCell ref="D70:F71"/>
+    <mergeCell ref="D72:F73"/>
+    <mergeCell ref="D74:F75"/>
+    <mergeCell ref="D76:F77"/>
+    <mergeCell ref="D54:F55"/>
+    <mergeCell ref="D56:F57"/>
+    <mergeCell ref="D58:F59"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="D62:F63"/>
+    <mergeCell ref="D64:F65"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A28:C29"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="A32:C33"/>
+    <mergeCell ref="D90:F91"/>
+    <mergeCell ref="D92:F93"/>
+    <mergeCell ref="D94:F95"/>
+    <mergeCell ref="D96:F97"/>
+    <mergeCell ref="D98:F99"/>
+    <mergeCell ref="D100:F101"/>
+    <mergeCell ref="D78:F79"/>
+    <mergeCell ref="D80:F81"/>
+    <mergeCell ref="D82:F83"/>
+    <mergeCell ref="D84:F85"/>
+    <mergeCell ref="D86:F87"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="D66:F67"/>
+    <mergeCell ref="D68:F69"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="G10:I11"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="G26:I27"/>
+    <mergeCell ref="G28:I29"/>
+    <mergeCell ref="G30:I31"/>
+    <mergeCell ref="A46:C47"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="A42:C43"/>
+    <mergeCell ref="A44:C45"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="D44:F45"/>
+    <mergeCell ref="D46:F47"/>
+    <mergeCell ref="D48:F49"/>
+    <mergeCell ref="D50:F51"/>
+    <mergeCell ref="G44:I45"/>
+    <mergeCell ref="G46:I47"/>
+    <mergeCell ref="G48:I49"/>
+    <mergeCell ref="G50:I51"/>
+    <mergeCell ref="G52:I53"/>
+    <mergeCell ref="G54:I55"/>
+    <mergeCell ref="G32:I33"/>
+    <mergeCell ref="G34:I35"/>
+    <mergeCell ref="G36:I37"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="G40:I41"/>
+    <mergeCell ref="G42:I43"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G68:I69"/>
+    <mergeCell ref="G70:I71"/>
+    <mergeCell ref="G72:I73"/>
+    <mergeCell ref="G74:I75"/>
+    <mergeCell ref="G76:I77"/>
+    <mergeCell ref="G78:I79"/>
+    <mergeCell ref="G56:I57"/>
+    <mergeCell ref="G58:I59"/>
+    <mergeCell ref="G60:I61"/>
+    <mergeCell ref="G62:I63"/>
+    <mergeCell ref="G64:I65"/>
+    <mergeCell ref="G66:I67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-case/caseList.xlsx
+++ b/test-case/caseList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>testLeaveOrderMessage()</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>testChangeProfilePicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testCancelOrder()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在order page中无法定位waiting service provider to confirm的order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +428,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C11"/>
+      <selection activeCell="D10" sqref="D10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -541,7 +553,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -558,23 +570,29 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="59.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1338,36 +1356,63 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="D6:F9"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="D52:F53"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="D34:F35"/>
-    <mergeCell ref="D36:F37"/>
-    <mergeCell ref="D38:F39"/>
-    <mergeCell ref="D40:F41"/>
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="D26:F27"/>
-    <mergeCell ref="D28:F29"/>
-    <mergeCell ref="D70:F71"/>
-    <mergeCell ref="D72:F73"/>
-    <mergeCell ref="D74:F75"/>
-    <mergeCell ref="D76:F77"/>
-    <mergeCell ref="D54:F55"/>
-    <mergeCell ref="D56:F57"/>
-    <mergeCell ref="D58:F59"/>
-    <mergeCell ref="D60:F61"/>
-    <mergeCell ref="D62:F63"/>
-    <mergeCell ref="D64:F65"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G68:I69"/>
+    <mergeCell ref="G70:I71"/>
+    <mergeCell ref="G72:I73"/>
+    <mergeCell ref="G74:I75"/>
+    <mergeCell ref="G76:I77"/>
+    <mergeCell ref="G78:I79"/>
+    <mergeCell ref="G56:I57"/>
+    <mergeCell ref="G58:I59"/>
+    <mergeCell ref="G60:I61"/>
+    <mergeCell ref="G62:I63"/>
+    <mergeCell ref="G64:I65"/>
+    <mergeCell ref="G66:I67"/>
+    <mergeCell ref="G44:I45"/>
+    <mergeCell ref="G46:I47"/>
+    <mergeCell ref="G48:I49"/>
+    <mergeCell ref="G50:I51"/>
+    <mergeCell ref="G52:I53"/>
+    <mergeCell ref="G54:I55"/>
+    <mergeCell ref="G32:I33"/>
+    <mergeCell ref="G34:I35"/>
+    <mergeCell ref="G36:I37"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="G40:I41"/>
+    <mergeCell ref="G42:I43"/>
+    <mergeCell ref="A46:C47"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="A42:C43"/>
+    <mergeCell ref="A44:C45"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="D44:F45"/>
+    <mergeCell ref="D46:F47"/>
+    <mergeCell ref="D48:F49"/>
+    <mergeCell ref="D50:F51"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="G26:I27"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="G28:I29"/>
+    <mergeCell ref="G30:I31"/>
     <mergeCell ref="D102:F102"/>
     <mergeCell ref="A16:C17"/>
     <mergeCell ref="A18:C19"/>
@@ -1392,67 +1437,40 @@
     <mergeCell ref="D88:F89"/>
     <mergeCell ref="D66:F67"/>
     <mergeCell ref="D68:F69"/>
+    <mergeCell ref="D70:F71"/>
+    <mergeCell ref="D72:F73"/>
+    <mergeCell ref="D74:F75"/>
+    <mergeCell ref="D76:F77"/>
+    <mergeCell ref="D54:F55"/>
+    <mergeCell ref="D56:F57"/>
+    <mergeCell ref="D58:F59"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="D62:F63"/>
+    <mergeCell ref="D64:F65"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="D6:F9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="D52:F53"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="D36:F37"/>
+    <mergeCell ref="D38:F39"/>
+    <mergeCell ref="D40:F41"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="D28:F29"/>
     <mergeCell ref="G6:I7"/>
     <mergeCell ref="G8:I9"/>
     <mergeCell ref="G10:I11"/>
     <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G14:I15"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="G18:I19"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="G24:I25"/>
-    <mergeCell ref="G26:I27"/>
-    <mergeCell ref="G28:I29"/>
-    <mergeCell ref="G30:I31"/>
-    <mergeCell ref="A46:C47"/>
-    <mergeCell ref="A48:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="A42:C43"/>
-    <mergeCell ref="A44:C45"/>
-    <mergeCell ref="D42:F43"/>
-    <mergeCell ref="D44:F45"/>
-    <mergeCell ref="D46:F47"/>
-    <mergeCell ref="D48:F49"/>
-    <mergeCell ref="D50:F51"/>
-    <mergeCell ref="G44:I45"/>
-    <mergeCell ref="G46:I47"/>
-    <mergeCell ref="G48:I49"/>
-    <mergeCell ref="G50:I51"/>
-    <mergeCell ref="G52:I53"/>
-    <mergeCell ref="G54:I55"/>
-    <mergeCell ref="G32:I33"/>
-    <mergeCell ref="G34:I35"/>
-    <mergeCell ref="G36:I37"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="G40:I41"/>
-    <mergeCell ref="G42:I43"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="G68:I69"/>
-    <mergeCell ref="G70:I71"/>
-    <mergeCell ref="G72:I73"/>
-    <mergeCell ref="G74:I75"/>
-    <mergeCell ref="G76:I77"/>
-    <mergeCell ref="G78:I79"/>
-    <mergeCell ref="G56:I57"/>
-    <mergeCell ref="G58:I59"/>
-    <mergeCell ref="G60:I61"/>
-    <mergeCell ref="G62:I63"/>
-    <mergeCell ref="G64:I65"/>
-    <mergeCell ref="G66:I67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
